--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/45_Kars_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/45_Kars_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E862136-98CC-4696-80FC-50ED1114354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A97AC63-EBC5-4BF4-9447-B2762673A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{3F7BD55E-BF78-4296-93EF-EC5B243D08C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{1883773A-9A2E-427A-A2D7-38A6D2232E22}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -911,13 +911,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{386F8F13-D0D7-44B4-8D4E-EBAC1C9014A4}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B0F9E43D-9360-472F-A981-B58C25168088}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{4A18DAFC-2B2E-4915-A52D-DEE9611B1C3A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{D6B9453A-C2EA-47B7-BEB0-9A4D6DA40356}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{25D0405B-8B33-4E9A-96A5-942F2CB24DD3}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{971746FF-1ED8-4C81-B0D8-1B5E060DBA30}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{DC9528B8-1F55-4727-9DA9-081E1A37D443}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8F72E1FE-7731-4184-AC42-CF50BBE2FB5B}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4073B2FF-A727-4B99-A086-5ECA8F03D1C3}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{2791CDE5-B945-4D3B-8316-30F338A01B7D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{9B45FA86-6236-4B89-A542-F1E9632F41E5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{12A43F04-2F6F-4928-97A2-76A85C855D60}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{A1155AED-62AD-4F3D-BBD7-60FB6689F890}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{427A1075-86A7-4F6B-9864-1BF42355D6E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD01612F-9031-489D-8311-B3426F1BA193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585CACE6-C3AA-419F-BB62-845636563C5B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2557,7 +2557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C9698D-AA32-4592-9186-E45070802D6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024D4BDB-EC17-4BA1-BF3C-4EF820A7EC4A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3790,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4C98AD-90CE-4A79-89A8-5FF46A0D5D1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FEBBDC-B0BE-4E13-BD66-D12A8D986990}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5023,7 +5023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F4530A-29CF-4FF4-9FBE-81101777B2B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C6766B-9220-47A2-B363-7DB70FB16C10}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6242,7 +6242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD627F6-4CC8-4D41-A4B7-F6DD528E882E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9063F594-8924-4245-B542-8D150B9F4AE8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7511,7 +7511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A571A0-943A-494D-ABF8-7CDB4F98F3A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912A089F-4808-4C11-9BE1-B913DB870F7E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8780,7 +8780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1799085-9D7A-4C45-8A45-E46D16F964BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EFC44F-F4F9-41A2-B42C-417E59A2F189}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10049,7 +10049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE97788-A3D6-4DE6-A2B5-005C9762AA64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0A315D-5435-4D68-B877-743968C5DB6E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11318,7 +11318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A10D59-7CAD-4174-92DE-34A1802345B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB05A48-458F-4F1F-83E7-0576A99EC85E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12583,7 +12583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B055B98-F70B-40E0-8743-6995B5223F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF8A4E2-BD68-4217-A414-6646EC14A23D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13836,7 +13836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6BE1E9-7676-405F-BFB7-4FF6FB10337A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC481DAF-3B5A-453A-9E21-BECC48E2A29A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15089,7 +15089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088F4044-243D-4DB4-86E9-D4ED4119D57C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6CA208-A737-4B78-88F4-50A294325B52}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
